--- a/Analytics/D1/TeamFirstCard_d1.xlsx
+++ b/Analytics/D1/TeamFirstCard_d1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="37">
   <si>
     <t>HomeTeam</t>
   </si>
@@ -46,6 +46,21 @@
     <t>5</t>
   </si>
   <si>
+    <t>Hoffenheim</t>
+  </si>
+  <si>
+    <t>Mainz</t>
+  </si>
+  <si>
+    <t>Union Berlin</t>
+  </si>
+  <si>
+    <t>Bochum</t>
+  </si>
+  <si>
+    <t>Leverkusen</t>
+  </si>
+  <si>
     <t>6</t>
   </si>
   <si>
@@ -55,6 +70,24 @@
     <t>8</t>
   </si>
   <si>
+    <t>St Pauli</t>
+  </si>
+  <si>
+    <t>Stuttgart</t>
+  </si>
+  <si>
+    <t>Bayern Munich</t>
+  </si>
+  <si>
+    <t>Heidenheim</t>
+  </si>
+  <si>
+    <t>Freiburg</t>
+  </si>
+  <si>
+    <t>Dortmund</t>
+  </si>
+  <si>
     <t>9</t>
   </si>
   <si>
@@ -67,76 +100,37 @@
     <t>12</t>
   </si>
   <si>
-    <t>Mainz</t>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>RB Leipzig</t>
+  </si>
+  <si>
+    <t>Augsburg</t>
+  </si>
+  <si>
+    <t>Mgladbach</t>
+  </si>
+  <si>
+    <t>Holstein Kiel</t>
+  </si>
+  <si>
+    <t>Wolfsburg</t>
+  </si>
+  <si>
+    <t>Ein Frankfurt</t>
   </si>
   <si>
     <t>Werder Bremen</t>
-  </si>
-  <si>
-    <t>Wolfsburg</t>
-  </si>
-  <si>
-    <t>Union Berlin</t>
-  </si>
-  <si>
-    <t>Bayern Munich</t>
-  </si>
-  <si>
-    <t>Leverkusen</t>
-  </si>
-  <si>
-    <t>Bochum</t>
-  </si>
-  <si>
-    <t>Ein Frankfurt</t>
-  </si>
-  <si>
-    <t>Hoffenheim</t>
-  </si>
-  <si>
-    <t>FC Koln</t>
-  </si>
-  <si>
-    <t>Dortmund</t>
-  </si>
-  <si>
-    <t>Stuttgart</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>RB Leipzig</t>
-  </si>
-  <si>
-    <t>Augsburg</t>
-  </si>
-  <si>
-    <t>Mgladbach</t>
-  </si>
-  <si>
-    <t>Darmstadt</t>
-  </si>
-  <si>
-    <t>Heidenheim</t>
-  </si>
-  <si>
-    <t>Freiburg</t>
   </si>
   <si>
     <t>AwayTeam</t>
@@ -204,10 +198,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
@@ -215,10 +209,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -226,10 +220,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
@@ -237,10 +231,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
@@ -248,86 +242,9 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C6" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -347,7 +264,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -358,10 +275,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
@@ -369,10 +286,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -380,10 +297,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -391,10 +308,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C5" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -402,152 +319,108 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C6" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C7" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C8" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C9" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C12" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C13" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C14" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C15" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -567,7 +440,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -578,10 +451,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
@@ -589,10 +462,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C3" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -600,10 +473,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C4" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
@@ -611,10 +484,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C5" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
@@ -622,141 +495,53 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C6" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C7" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C10" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -776,7 +561,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -787,10 +572,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C2" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
@@ -798,10 +583,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C3" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -809,10 +594,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
@@ -820,10 +605,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C5" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
@@ -831,119 +616,53 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>33</v>
       </c>
       <c r="C7" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C8" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -974,10 +693,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C2" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
@@ -985,10 +704,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -996,10 +715,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C4" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -1007,10 +726,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C5" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
@@ -1018,152 +737,42 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C6" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C8" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C9" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1194,10 +803,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C2" t="n">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
@@ -1205,10 +814,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="C3" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -1216,10 +825,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -1227,10 +836,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C5" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -1238,153 +847,131 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C6" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C7" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C8" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C12" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C13" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C15" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C16" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C17" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
@@ -1414,10 +1001,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C2" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
@@ -1425,10 +1012,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="4">
@@ -1439,7 +1026,7 @@
         <v>35</v>
       </c>
       <c r="C4" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
@@ -1447,10 +1034,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C5" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
@@ -1458,141 +1045,53 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C7" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C8" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C9" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C10" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1623,10 +1122,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C2" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
@@ -1637,7 +1136,7 @@
         <v>32</v>
       </c>
       <c r="C3" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="4">
@@ -1645,10 +1144,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C4" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
@@ -1656,10 +1155,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
@@ -1667,152 +1166,42 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C6" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C7" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C8" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C9" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1843,10 +1232,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C2" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
@@ -1854,10 +1243,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C3" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -1865,10 +1254,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
@@ -1876,10 +1265,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
@@ -1887,59 +1276,59 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C6" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C7" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
       <c r="C8" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
       <c r="C10" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
@@ -1950,10 +1339,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C12" t="n">
         <v>1.0</v>
@@ -1961,10 +1350,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C13" t="n">
         <v>1.0</v>
@@ -1972,10 +1361,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C14" t="n">
         <v>1.0</v>
@@ -1997,7 +1386,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2008,10 +1397,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C2" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
@@ -2019,10 +1408,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="4">
@@ -2030,10 +1419,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
@@ -2041,10 +1430,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
@@ -2052,152 +1441,31 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C6" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C7" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C8" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -2217,7 +1485,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2228,10 +1496,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
@@ -2239,10 +1507,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C3" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -2250,10 +1518,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C4" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -2261,10 +1529,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -2272,141 +1540,64 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C6" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C8" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C9" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
       <c r="C10" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C11" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -2426,7 +1617,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2437,10 +1628,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C2" t="n">
-        <v>9.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
@@ -2448,10 +1639,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -2459,10 +1650,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C4" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -2470,10 +1661,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C5" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -2481,153 +1672,98 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="C6" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C7" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
         <v>32</v>
       </c>
       <c r="C8" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C12" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C13" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C14" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>

--- a/Analytics/D1/TeamFirstCard_d1.xlsx
+++ b/Analytics/D1/TeamFirstCard_d1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="38">
   <si>
     <t>HomeTeam</t>
   </si>
@@ -46,6 +46,18 @@
     <t>5</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>Hoffenheim</t>
   </si>
   <si>
@@ -55,82 +67,73 @@
     <t>Union Berlin</t>
   </si>
   <si>
+    <t>Leverkusen</t>
+  </si>
+  <si>
+    <t>Wolfsburg</t>
+  </si>
+  <si>
     <t>Bochum</t>
   </si>
   <si>
-    <t>Leverkusen</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
+    <t>Augsburg</t>
+  </si>
+  <si>
+    <t>Ein Frankfurt</t>
+  </si>
+  <si>
+    <t>Stuttgart</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
   </si>
   <si>
     <t>St Pauli</t>
   </si>
   <si>
-    <t>Stuttgart</t>
+    <t>Heidenheim</t>
+  </si>
+  <si>
+    <t>Dortmund</t>
+  </si>
+  <si>
+    <t>Freiburg</t>
   </si>
   <si>
     <t>Bayern Munich</t>
   </si>
   <si>
-    <t>Heidenheim</t>
-  </si>
-  <si>
-    <t>Freiburg</t>
-  </si>
-  <si>
-    <t>Dortmund</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
+    <t>RB Leipzig</t>
+  </si>
+  <si>
+    <t>Werder Bremen</t>
+  </si>
+  <si>
+    <t>Mgladbach</t>
   </si>
   <si>
     <t>16</t>
   </si>
   <si>
-    <t>RB Leipzig</t>
-  </si>
-  <si>
-    <t>Augsburg</t>
-  </si>
-  <si>
-    <t>Mgladbach</t>
+    <t>17</t>
   </si>
   <si>
     <t>Holstein Kiel</t>
-  </si>
-  <si>
-    <t>Wolfsburg</t>
-  </si>
-  <si>
-    <t>Ein Frankfurt</t>
-  </si>
-  <si>
-    <t>Werder Bremen</t>
   </si>
   <si>
     <t>AwayTeam</t>
@@ -198,7 +201,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C2" t="n">
         <v>2.0</v>
@@ -209,7 +212,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C3" t="n">
         <v>2.0</v>
@@ -220,7 +223,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -231,7 +234,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C5" t="n">
         <v>1.0</v>
@@ -242,9 +245,53 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C6" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -264,7 +311,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -275,10 +322,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C2" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="3">
@@ -289,7 +336,7 @@
         <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
@@ -297,10 +344,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C4" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
@@ -308,7 +355,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -319,73 +366,73 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C8" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C10" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
         <v>33</v>
       </c>
       <c r="C11" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" t="n">
         <v>1.0</v>
@@ -393,10 +440,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C13" t="n">
         <v>1.0</v>
@@ -404,10 +451,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C14" t="n">
         <v>1.0</v>
@@ -415,12 +462,34 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -440,7 +509,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -451,7 +520,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C2" t="n">
         <v>2.0</v>
@@ -462,7 +531,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C3" t="n">
         <v>2.0</v>
@@ -473,10 +542,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C4" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -484,7 +553,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C5" t="n">
         <v>1.0</v>
@@ -495,7 +564,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -503,10 +572,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C7" t="n">
         <v>1.0</v>
@@ -514,10 +583,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C8" t="n">
         <v>1.0</v>
@@ -525,7 +594,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
@@ -536,12 +605,34 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
         <v>21</v>
       </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" t="n">
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -561,7 +652,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -572,10 +663,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C2" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
@@ -583,7 +674,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C3" t="n">
         <v>2.0</v>
@@ -594,10 +685,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C4" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -605,10 +696,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C5" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -616,29 +707,29 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="C7" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C8" t="n">
         <v>1.0</v>
@@ -646,10 +737,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C9" t="n">
         <v>1.0</v>
@@ -657,12 +748,23 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C10" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -693,10 +795,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C2" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="3">
@@ -704,7 +806,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C3" t="n">
         <v>2.0</v>
@@ -715,7 +817,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
@@ -726,10 +828,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C5" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -737,42 +839,119 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C7" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C8" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="C9" t="n">
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -803,10 +982,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C2" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +993,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="n">
         <v>2.0</v>
@@ -825,7 +1004,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
@@ -836,7 +1015,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -847,7 +1026,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -855,10 +1034,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -866,54 +1045,54 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
       </c>
       <c r="C8" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C10" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C11" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C12" t="n">
         <v>1.0</v>
@@ -921,10 +1100,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C13" t="n">
         <v>1.0</v>
@@ -932,10 +1111,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C14" t="n">
         <v>1.0</v>
@@ -943,10 +1122,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C15" t="n">
         <v>1.0</v>
@@ -954,10 +1133,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C16" t="n">
         <v>1.0</v>
@@ -965,12 +1144,23 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
         <v>35</v>
       </c>
-      <c r="C17" t="n">
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1001,10 +1191,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C2" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
@@ -1012,10 +1202,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C3" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -1023,10 +1213,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C4" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -1034,10 +1224,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C5" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -1045,18 +1235,18 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C7" t="n">
         <v>1.0</v>
@@ -1064,10 +1254,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C8" t="n">
         <v>1.0</v>
@@ -1075,10 +1265,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C9" t="n">
         <v>1.0</v>
@@ -1086,12 +1276,34 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
         <v>21</v>
       </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" t="n">
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1122,7 +1334,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C2" t="n">
         <v>2.0</v>
@@ -1133,10 +1345,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C3" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -1144,10 +1356,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C4" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -1155,10 +1367,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C5" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -1166,18 +1378,18 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C7" t="n">
         <v>1.0</v>
@@ -1185,10 +1397,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C8" t="n">
         <v>1.0</v>
@@ -1196,12 +1408,56 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C9" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1232,10 +1488,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="C2" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
@@ -1243,10 +1499,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C3" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
@@ -1254,10 +1510,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C4" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -1265,10 +1521,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C5" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -1276,7 +1532,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -1284,10 +1540,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C7" t="n">
         <v>1.0</v>
@@ -1295,10 +1551,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C8" t="n">
         <v>1.0</v>
@@ -1306,10 +1562,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C9" t="n">
         <v>1.0</v>
@@ -1317,10 +1573,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C10" t="n">
         <v>1.0</v>
@@ -1328,10 +1584,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C11" t="n">
         <v>1.0</v>
@@ -1339,10 +1595,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C12" t="n">
         <v>1.0</v>
@@ -1350,10 +1606,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C13" t="n">
         <v>1.0</v>
@@ -1361,12 +1617,23 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C14" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1386,7 +1653,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1397,10 +1664,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
@@ -1408,10 +1675,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C3" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -1419,7 +1686,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -1430,7 +1697,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C5" t="n">
         <v>1.0</v>
@@ -1441,7 +1708,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -1449,7 +1716,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>31</v>
@@ -1460,12 +1727,34 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1485,7 +1774,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1496,10 +1785,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C2" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="3">
@@ -1507,10 +1796,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C3" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
@@ -1518,10 +1807,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C4" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
@@ -1529,7 +1818,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -1540,7 +1829,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -1548,32 +1837,32 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C7" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C8" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="C9" t="n">
         <v>1.0</v>
@@ -1581,10 +1870,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C10" t="n">
         <v>1.0</v>
@@ -1592,12 +1881,56 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="n">
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1617,7 +1950,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1628,7 +1961,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C2" t="n">
         <v>3.0</v>
@@ -1639,10 +1972,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
@@ -1650,7 +1983,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
@@ -1661,7 +1994,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -1672,40 +2005,40 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C7" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C8" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C9" t="n">
         <v>1.0</v>
@@ -1713,10 +2046,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="C10" t="n">
         <v>1.0</v>
@@ -1724,10 +2057,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C11" t="n">
         <v>1.0</v>
@@ -1735,10 +2068,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="C12" t="n">
         <v>1.0</v>
@@ -1746,10 +2079,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C13" t="n">
         <v>1.0</v>
@@ -1757,10 +2090,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C14" t="n">
         <v>1.0</v>
